--- a/reform manifesto analysis.xlsx
+++ b/reform manifesto analysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Dan/tax policy associates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F4C019-8984-ED44-B742-FAA18C5E4BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A1B40-9811-2B46-929E-A059DED239EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="3580" windowWidth="43400" windowHeight="21760" xr2:uid="{37E8024F-99F2-9441-9273-75D69B1A98E9}"/>
+    <workbookView xWindow="4140" yWindow="3580" windowWidth="45800" windowHeight="21760" xr2:uid="{37E8024F-99F2-9441-9273-75D69B1A98E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="Bank profits analysis" sheetId="5" r:id="rId3"/>
+    <sheet name="Calculations - personal" sheetId="1" r:id="rId2"/>
+    <sheet name="Calculations - business" sheetId="7" r:id="rId3"/>
+    <sheet name="Bank profits analysis" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>https://www.gov.uk/government/statistics/direct-effects-of-illustrative-tax-changes/direct-effects-of-illustrative-tax-changes-bulletin-january-2023</t>
   </si>
@@ -250,9 +251,6 @@
     <t>Cut stamp duty</t>
   </si>
   <si>
-    <t>Measure</t>
-  </si>
-  <si>
     <t>£68bn</t>
   </si>
   <si>
@@ -287,21 +285,142 @@
   </si>
   <si>
     <t>£70bn</t>
+  </si>
+  <si>
+    <t>Lift the minimum profit threshold to £100k.</t>
+  </si>
+  <si>
+    <t>Reduce the main Corporation Tax Rate from 25% to 20%</t>
+  </si>
+  <si>
+    <t>ready reckoner</t>
+  </si>
+  <si>
+    <t>original costing from 2021</t>
+  </si>
+  <si>
+    <t>Lift VAT threshold to £120,000</t>
+  </si>
+  <si>
+    <t>Increasing from £85k to £90k cost, for 2025/26:</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/vat-increasing-the-registration-and-deregistration-thresholds/increasing-the-vat-registration-threshold#:~:text=The%20VAT%20registration%20and%20deregistration,%C2%A385%2C000%20to%20%C2%A390%2C000.</t>
+  </si>
+  <si>
+    <t>First estimate:</t>
+  </si>
+  <si>
+    <t>Second estimate:</t>
+  </si>
+  <si>
+    <t>Total VAT paid by companies with turnover between £85k and £150k</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/value-added-tax-vat-annual-statistics</t>
+  </si>
+  <si>
+    <t>table T5b</t>
+  </si>
+  <si>
+    <t>extrapolating this figure to an increase to £120k</t>
+  </si>
+  <si>
+    <t>pro-rating this figure to reflect £120k threshold</t>
+  </si>
+  <si>
+    <t>Abolish IR35</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/autumn-statement-2022-documents/autumn-statement-2022-html</t>
+  </si>
+  <si>
+    <t>In 2021/2022 profit of £100k meant tax of £20k</t>
+  </si>
+  <si>
+    <t>But cannot assess proposal because no policy detail.</t>
+  </si>
+  <si>
+    <t>Measure affects all companies with profits of £50-100k. How many are there?</t>
+  </si>
+  <si>
+    <t>We have stats for 2021/22. In those years, profits between £50-100k meant CT of £10-20k</t>
+  </si>
+  <si>
+    <t>those with CT between £10-50k paid  (m)</t>
+  </si>
+  <si>
+    <t>Inflation from 2021/22 to 2025/26 (estimated; figure to April 2024 is 20%)</t>
+  </si>
+  <si>
+    <t>If we assume linearity, that implies CT from companies with tax of £10-20k (and therefore £50-100k profit) was</t>
+  </si>
+  <si>
+    <t>also:</t>
+  </si>
+  <si>
+    <t>Hence estimated cost of cutting CT for these companies from 20% to 19% will be. (m)</t>
+  </si>
+  <si>
+    <t>Lower bound estimate (due to lack of policy detail)</t>
+  </si>
+  <si>
+    <t>But this excludes the very significant cost of abolishing IR35 itself</t>
+  </si>
+  <si>
+    <t>off-payroll rules private sector</t>
+  </si>
+  <si>
+    <t>off-payroll rules public sector</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/publications/off-payroll-working-in-the-public-sector-reform-of-the-intermediaries-legislation/off-payroll-working-in-the-public-sector-reform-of-the-intermediaries-legislation#:~:text=The%20off%2Dpayroll%20rules%20(often,intermediary%20that%20they%20work%20through.</t>
+  </si>
+  <si>
+    <t>Personal tax measure</t>
+  </si>
+  <si>
+    <t>Business tax measure</t>
+  </si>
+  <si>
+    <t>£18bn</t>
+  </si>
+  <si>
+    <t>£14.2bn</t>
+  </si>
+  <si>
+    <t>Lift the minimum profit threshold to £100k</t>
+  </si>
+  <si>
+    <t>£100m</t>
+  </si>
+  <si>
+    <t>£1.1bn</t>
+  </si>
+  <si>
+    <t>Abolish IR35 - but this estimate covers enforcement change only</t>
+  </si>
+  <si>
+    <t>more than £1.8bn</t>
+  </si>
+  <si>
+    <t>over £17.2bn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00_);[Red]\(&quot;£&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.0_);[Red]\(&quot;£&quot;#,##0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,16 +500,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -418,13 +549,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -461,14 +610,112 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{5AF2B4D6-B90B-EF42-B5EE-62B7BBFC7D02}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -573,13 +820,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21307C64-66A1-824E-AAF4-9269697BD4BB}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21307C64-66A1-824E-AAF4-9269697BD4BB}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F10AC3B-A88D-B04B-A580-76951BEDF1B3}" name="Measure" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{046434D5-605C-3B41-A10C-3F3CCB130431}" name="Our estimate" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5F343F97-2611-E843-8B21-4D2F998F9986}" name="Reform UK figure" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0F10AC3B-A88D-B04B-A580-76951BEDF1B3}" name="Personal tax measure" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{046434D5-605C-3B41-A10C-3F3CCB130431}" name="Our estimate" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{5F343F97-2611-E843-8B21-4D2F998F9986}" name="Reform UK figure" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1CA11BB-8F04-1E42-9DC8-D235F2FD0516}" name="Table13" displayName="Table13" ref="A16:C22" totalsRowShown="0" headerRowDxfId="1" dataDxfId="5">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E3101EA9-1354-2D42-9126-0326E0F63538}" name="Business tax measure" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B658B82C-6445-4246-B0EE-6CA5670FE125}" name="Our estimate" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{62E31063-4A75-B347-AA37-5C5CAF85C5D0}" name="Reform UK figure" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -900,36 +1158,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BB94CF-2D8A-C542-ADD7-5724C9A476BF}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A3:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="78.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="89.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="27"/>
     </row>
@@ -938,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -947,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="27"/>
     </row>
@@ -956,34 +1214,125 @@
         <v>69</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="27"/>
-    </row>
-    <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="B8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="27"/>
-    </row>
-    <row r="9" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="C9" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -992,12 +1341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6BCFFB-24DC-EA43-B576-33C82E05DB25}">
   <dimension ref="A3:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -1975,6 +2325,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2715E-0F16-CD41-8D5B-1375D1E17730}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <f>SUM(A3:A65)</f>
+        <v>17.209999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>14.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3">
+        <f xml:space="preserve"> 3700 * 5</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3">
+        <f>17060*5/6</f>
+        <v>14216.666666666666</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="29">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <f>C17/5</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="31">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="6">
+        <f>C20*(1+C23)/20</f>
+        <v>108.864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="23">
+        <v>185</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="8">
+        <f xml:space="preserve"> (120-90)/5*C32</f>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="7">
+        <v>2300</v>
+      </c>
+      <c r="I38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="8">
+        <f>C38*(120-85)/(150-85)</f>
+        <v>1238.4615384615386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <f>(C45+C48)/1000</f>
+        <v>1.81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="8">
+        <v>1660</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{9E01971E-2273-B844-98AF-278B4793EBD3}"/>
+    <hyperlink ref="G48" r:id="rId2" location=":~:text=The%20off%2Dpayroll%20rules%20(often,intermediary%20that%20they%20work%20through." display="https://www.gov.uk/government/publications/off-payroll-working-in-the-public-sector-reform-of-the-intermediaries-legislation/off-payroll-working-in-the-public-sector-reform-of-the-intermediaries-legislation#:~:text=The%20off%2Dpayroll%20rules%20(often,intermediary%20that%20they%20work%20through." xr:uid="{4E0AA829-AE61-8C4A-B6C2-C84969695157}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FE7008-FD61-B04F-BB71-280748A37C43}">
   <dimension ref="A1:M18"/>
   <sheetViews>

--- a/reform manifesto analysis.xlsx
+++ b/reform manifesto analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Coding/tax_plotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3A1B40-9811-2B46-929E-A059DED239EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F6E917-BC76-5541-BEC2-2971E10CE620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="3580" windowWidth="45800" windowHeight="21760" xr2:uid="{37E8024F-99F2-9441-9273-75D69B1A98E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t>https://www.gov.uk/government/statistics/direct-effects-of-illustrative-tax-changes/direct-effects-of-illustrative-tax-changes-bulletin-january-2023</t>
   </si>
@@ -254,9 +254,6 @@
     <t>£68bn</t>
   </si>
   <si>
-    <t>£8bn</t>
-  </si>
-  <si>
     <t>£9bn</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>﻿</t>
   </si>
   <si>
-    <t>£93bn</t>
-  </si>
-  <si>
     <t>Increase IT personal allowance and higher rate threshold</t>
   </si>
   <si>
@@ -405,6 +399,9 @@
   </si>
   <si>
     <t>over £17.2bn</t>
+  </si>
+  <si>
+    <t>£88bn</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
     <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.0_);[Red]\(&quot;£&quot;#,##0.0\)"/>
+    <numFmt numFmtId="168" formatCode="&quot;£&quot;#,##0.0_);[Red]\(&quot;£&quot;#,##0.0\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -610,7 +607,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -638,7 +635,61 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="18"/>
-        <color theme="0"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -746,61 +797,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -820,22 +817,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21307C64-66A1-824E-AAF4-9269697BD4BB}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21307C64-66A1-824E-AAF4-9269697BD4BB}" name="Table1" displayName="Table1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0F10AC3B-A88D-B04B-A580-76951BEDF1B3}" name="Personal tax measure" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{046434D5-605C-3B41-A10C-3F3CCB130431}" name="Our estimate" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5F343F97-2611-E843-8B21-4D2F998F9986}" name="Reform UK figure" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0F10AC3B-A88D-B04B-A580-76951BEDF1B3}" name="Personal tax measure" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{046434D5-605C-3B41-A10C-3F3CCB130431}" name="Our estimate" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5F343F97-2611-E843-8B21-4D2F998F9986}" name="Reform UK figure" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1CA11BB-8F04-1E42-9DC8-D235F2FD0516}" name="Table13" displayName="Table13" ref="A16:C22" totalsRowShown="0" headerRowDxfId="1" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1CA11BB-8F04-1E42-9DC8-D235F2FD0516}" name="Table13" displayName="Table13" ref="A16:C22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E3101EA9-1354-2D42-9126-0326E0F63538}" name="Business tax measure" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B658B82C-6445-4246-B0EE-6CA5670FE125}" name="Our estimate" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{62E31063-4A75-B347-AA37-5C5CAF85C5D0}" name="Reform UK figure" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E3101EA9-1354-2D42-9126-0326E0F63538}" name="Business tax measure" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B658B82C-6445-4246-B0EE-6CA5670FE125}" name="Our estimate" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{62E31063-4A75-B347-AA37-5C5CAF85C5D0}" name="Reform UK figure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,7 +1158,7 @@
   <dimension ref="A3:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,18 +1170,18 @@
   <sheetData>
     <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>70</v>
@@ -1195,8 +1192,8 @@
       <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>71</v>
+      <c r="B5" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="27"/>
     </row>
@@ -1205,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="27"/>
     </row>
@@ -1214,74 +1211,74 @@
         <v>69</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:3" ht="24" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="27"/>
     </row>
@@ -1292,13 +1289,13 @@
     </row>
     <row r="22" spans="1:3" ht="24" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -1341,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6BCFFB-24DC-EA43-B576-33C82E05DB25}">
   <dimension ref="A3:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1364,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <f>SUM(A7:A171)</f>
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,7 +1399,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -2328,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A2715E-0F16-CD41-8D5B-1375D1E17730}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2350,7 +2347,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2358,7 +2355,7 @@
         <v>14.2</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3">
         <f xml:space="preserve"> 3700 * 5</f>
@@ -2367,19 +2364,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3">
         <f>17060*5/6</f>
         <v>14216.666666666666</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2387,18 +2384,18 @@
         <v>0.1</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2416,7 +2413,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2430,7 +2427,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2443,7 +2440,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2454,12 +2451,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2469,10 +2466,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2480,12 +2477,12 @@
         <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2496,13 +2493,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2510,12 +2507,12 @@
         <v>2300</v>
       </c>
       <c r="I38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2526,7 +2523,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2535,10 +2532,10 @@
         <v>1.81</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2546,12 +2543,12 @@
         <v>1660</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2559,12 +2556,12 @@
         <v>150</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
